--- a/Team-Data/2020-21/1-10-2020-21.xlsx
+++ b/Team-Data/2020-21/1-10-2020-21.xlsx
@@ -2195,7 +2195,7 @@
         <v>26</v>
       </c>
       <c r="CL2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CM2" t="n">
         <v>17</v>
@@ -3049,16 +3049,16 @@
         <v>110.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="BP3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BR3" t="n">
         <v>2</v>
@@ -3073,13 +3073,13 @@
         <v>16.8</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="BW3" t="n">
         <v>0.736</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="BY3" t="n">
         <v>0.156</v>
@@ -3091,16 +3091,16 @@
         <v>0.577</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.83</v>
+        <v>83.92</v>
       </c>
       <c r="CE3" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="CF3" t="n">
         <v>0.508</v>
@@ -3121,7 +3121,7 @@
         <v>12</v>
       </c>
       <c r="CL3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CM3" t="n">
         <v>19</v>
@@ -3139,7 +3139,7 @@
         <v>24</v>
       </c>
       <c r="CR3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CS3" t="n">
         <v>20</v>
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="CX3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="CY3" t="n">
         <v>11</v>
@@ -3203,7 +3203,7 @@
         <v>0.156</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="DM3" t="n">
         <v>0.538</v>
@@ -3212,7 +3212,7 @@
         <v>0.266</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.264</v>
@@ -3242,7 +3242,7 @@
         <v>24</v>
       </c>
       <c r="DY3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="DZ3" t="n">
         <v>21</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.6</v>
@@ -3648,16 +3648,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="JA3" t="n">
         <v>23.1</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="CL4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CM4" t="n">
         <v>7</v>
@@ -8538,7 +8538,7 @@
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -8695,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="CR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="CS9" t="n">
         <v>23</v>
@@ -8798,7 +8798,7 @@
         <v>18</v>
       </c>
       <c r="DY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="DZ9" t="n">
         <v>22</v>
@@ -9119,7 +9119,7 @@
         <v>25</v>
       </c>
       <c r="HX9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="HY9" t="n">
         <v>23</v>
@@ -9386,16 +9386,16 @@
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
         <v>23.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9473,7 +9473,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>11</v>
@@ -9528,19 +9528,19 @@
         <v>495</v>
       </c>
       <c r="BM10" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="BN10" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="BO10" t="n">
         <v>110.6</v>
       </c>
       <c r="BP10" t="n">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-7.1</v>
+        <v>-7.2</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.7</v>
@@ -9549,7 +9549,7 @@
         <v>0.61</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BU10" t="n">
         <v>16.8</v>
@@ -9558,13 +9558,13 @@
         <v>0.269</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.487</v>
@@ -9573,16 +9573,16 @@
         <v>0.529</v>
       </c>
       <c r="CB10" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.64</v>
+        <v>99.73</v>
       </c>
       <c r="CD10" t="n">
-        <v>83.03</v>
+        <v>83.11</v>
       </c>
       <c r="CE10" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="CF10" t="n">
         <v>0.456</v>
@@ -9615,7 +9615,7 @@
         <v>12</v>
       </c>
       <c r="CP10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ10" t="n">
         <v>25</v>
@@ -9624,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="CS10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CT10" t="n">
         <v>27</v>
@@ -9682,7 +9682,7 @@
         <v>0.248</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="DL10" t="n">
         <v>0.269</v>
@@ -9697,7 +9697,7 @@
         <v>0.167</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
       <c r="DQ10" t="n">
         <v>5</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="EC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.5</v>
       </c>
       <c r="HI10" t="n">
-        <v>111.9</v>
+        <v>111.8</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.726</v>
+        <v>0.728</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>28</v>
       </c>
       <c r="HY10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="HZ10" t="n">
         <v>11</v>
@@ -12251,7 +12251,7 @@
         <v>5</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
         <v>5</v>
@@ -14269,7 +14269,7 @@
         <v>8</v>
       </c>
       <c r="CX15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CY15" t="n">
         <v>2</v>
@@ -15195,7 +15195,7 @@
         <v>27</v>
       </c>
       <c r="CX16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CY16" t="n">
         <v>24</v>
@@ -19810,7 +19810,7 @@
         <v>14</v>
       </c>
       <c r="CS21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT21" t="n">
         <v>12</v>
@@ -19922,7 +19922,7 @@
         <v>27</v>
       </c>
       <c r="EC21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="ED21" t="n">
         <v>10</v>
@@ -20234,7 +20234,7 @@
         <v>11</v>
       </c>
       <c r="HY21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="HZ21" t="n">
         <v>24</v>
@@ -23493,7 +23493,7 @@
         <v>8</v>
       </c>
       <c r="CL25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM25" t="n">
         <v>5</v>
@@ -25357,7 +25357,7 @@
         <v>17</v>
       </c>
       <c r="CP27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ27" t="n">
         <v>18</v>
@@ -28141,7 +28141,7 @@
         <v>29</v>
       </c>
       <c r="CR30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS30" t="n">
         <v>4</v>
@@ -28244,7 +28244,7 @@
         <v>19</v>
       </c>
       <c r="DY30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DZ30" t="n">
         <v>6</v>

--- a/Team-Data/2020-21/1-10-2020-21.xlsx
+++ b/Team-Data/2020-21/1-10-2020-21.xlsx
@@ -811,37 +811,37 @@
         <v>2.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG2" t="n">
         <v>20</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
@@ -850,43 +850,43 @@
         <v>4</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
         <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX2" t="n">
         <v>28</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA2" t="n">
         <v>12</v>
       </c>
       <c r="BB2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -993,43 +993,43 @@
         <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>25</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>20</v>
@@ -1038,13 +1038,13 @@
         <v>3</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV3" t="n">
         <v>23</v>
@@ -1062,10 +1062,10 @@
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>11</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -1097,121 +1097,121 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="J4" t="n">
-        <v>88.5</v>
+        <v>88.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.478</v>
+        <v>0.475</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="M4" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.384</v>
+        <v>0.392</v>
       </c>
       <c r="O4" t="n">
         <v>20</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R4" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="T4" t="n">
-        <v>46.9</v>
+        <v>47.3</v>
       </c>
       <c r="U4" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="V4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="n">
         <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA4" t="n">
         <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.5</v>
+        <v>118.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>14</v>
       </c>
-      <c r="AI4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>16</v>
-      </c>
       <c r="AK4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM4" t="n">
         <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>6</v>
@@ -1220,37 +1220,37 @@
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>3</v>
       </c>
       <c r="BC4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -1357,28 +1357,28 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>14</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>14</v>
@@ -1393,10 +1393,10 @@
         <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>9</v>
@@ -1405,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>3</v>
@@ -1420,13 +1420,13 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ5" t="n">
         <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -1461,142 +1461,142 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>41.9</v>
+        <v>41.4</v>
       </c>
       <c r="J6" t="n">
-        <v>87.90000000000001</v>
+        <v>89</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.465</v>
       </c>
       <c r="L6" t="n">
-        <v>13.4</v>
+        <v>12.9</v>
       </c>
       <c r="M6" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.377</v>
+        <v>0.361</v>
       </c>
       <c r="O6" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="P6" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="S6" t="n">
         <v>35</v>
       </c>
       <c r="T6" t="n">
-        <v>43.4</v>
+        <v>43.9</v>
       </c>
       <c r="U6" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="V6" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y6" t="n">
         <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.1</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD6" t="n">
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>26</v>
@@ -1608,13 +1608,13 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>6</v>
       </c>
       <c r="BC6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -1721,49 +1721,49 @@
         <v>-2.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG7" t="n">
         <v>15</v>
       </c>
-      <c r="AG7" t="n">
-        <v>14</v>
-      </c>
       <c r="AH7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>30</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>27</v>
@@ -1784,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>8</v>
@@ -1796,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="BC7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -1903,16 +1903,16 @@
         <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>5</v>
@@ -1933,34 +1933,34 @@
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>6</v>
       </c>
       <c r="AP8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>16</v>
       </c>
       <c r="AT8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1972,10 +1972,10 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC8" t="n">
         <v>7</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -2007,130 +2007,130 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.444</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I9" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="J9" t="n">
-        <v>87.5</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.494</v>
+        <v>0.489</v>
       </c>
       <c r="L9" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="M9" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.373</v>
+        <v>0.367</v>
       </c>
       <c r="O9" t="n">
-        <v>17.6</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>23.7</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R9" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S9" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
         <v>42.7</v>
       </c>
       <c r="U9" t="n">
-        <v>27.1</v>
+        <v>27.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X9" t="n">
         <v>4.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.5</v>
+        <v>116.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="n">
         <v>20</v>
       </c>
-      <c r="AK9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>18</v>
-      </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR9" t="n">
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -2139,28 +2139,28 @@
         <v>2</v>
       </c>
       <c r="AV9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>14</v>
       </c>
-      <c r="AW9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>17</v>
-      </c>
       <c r="BA9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB9" t="n">
         <v>5</v>
       </c>
       <c r="BC9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -2189,157 +2189,157 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="H10" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="I10" t="n">
-        <v>38.7</v>
+        <v>39.8</v>
       </c>
       <c r="J10" t="n">
-        <v>92.7</v>
+        <v>93.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.417</v>
+        <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="M10" t="n">
-        <v>38.3</v>
+        <v>37.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.334</v>
+        <v>0.346</v>
       </c>
       <c r="O10" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="R10" t="n">
         <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>33.2</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>44.3</v>
       </c>
       <c r="U10" t="n">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.7</v>
+        <v>19.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.8</v>
+        <v>111.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF10" t="n">
         <v>28</v>
       </c>
-      <c r="AF10" t="n">
-        <v>29</v>
-      </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA10" t="n">
         <v>7</v>
       </c>
-      <c r="AS10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>10</v>
-      </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
         <v>28</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -2371,148 +2371,148 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="J11" t="n">
-        <v>90.3</v>
+        <v>90</v>
       </c>
       <c r="K11" t="n">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
       <c r="L11" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="M11" t="n">
-        <v>38.7</v>
+        <v>37.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.351</v>
+        <v>0.361</v>
       </c>
       <c r="O11" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="P11" t="n">
-        <v>25.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.802</v>
       </c>
       <c r="R11" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="S11" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="U11" t="n">
-        <v>24.9</v>
+        <v>24.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.5</v>
+        <v>24.1</v>
       </c>
       <c r="AA11" t="n">
         <v>22.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>113.7</v>
+        <v>114.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>-2.9</v>
+        <v>-3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>8</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AR11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT11" t="n">
         <v>22</v>
       </c>
-      <c r="AO11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>19</v>
-      </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2521,10 +2521,10 @@
         <v>4</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -2553,115 +2553,115 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H12" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>40.3</v>
+        <v>40.7</v>
       </c>
       <c r="J12" t="n">
-        <v>84.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.474</v>
+        <v>0.484</v>
       </c>
       <c r="L12" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="M12" t="n">
-        <v>38.6</v>
+        <v>38.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.764</v>
+        <v>0.773</v>
       </c>
       <c r="R12" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="S12" t="n">
-        <v>34.5</v>
+        <v>35.1</v>
       </c>
       <c r="T12" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>14.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.3</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>112.8</v>
+        <v>114.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
         <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM12" t="n">
         <v>9</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2670,43 +2670,43 @@
         <v>7</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT12" t="n">
         <v>27</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>1</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -2813,10 +2813,10 @@
         <v>5.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2840,13 +2840,13 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
@@ -2855,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>20</v>
@@ -2867,13 +2867,13 @@
         <v>5</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
         <v>5</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>24</v>
@@ -2882,10 +2882,10 @@
         <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC13" t="n">
         <v>5</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -2917,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.2</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.09999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="L14" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="M14" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="O14" t="n">
-        <v>16.8</v>
+        <v>16.5</v>
       </c>
       <c r="P14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.841</v>
+        <v>0.846</v>
       </c>
       <c r="R14" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>41.1</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>111.8</v>
+        <v>110</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -3010,37 +3010,37 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
       </c>
       <c r="AP14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AT14" t="n">
         <v>30</v>
@@ -3049,28 +3049,28 @@
         <v>16</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX14" t="n">
         <v>17</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -3099,82 +3099,82 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="J15" t="n">
-        <v>87.8</v>
+        <v>87.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.493</v>
+        <v>0.491</v>
       </c>
       <c r="L15" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="M15" t="n">
-        <v>31.2</v>
+        <v>31.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="O15" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P15" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.764</v>
+        <v>0.766</v>
       </c>
       <c r="R15" t="n">
         <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="T15" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="U15" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="X15" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>114.5</v>
+        <v>113.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3195,13 +3195,13 @@
         <v>4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
@@ -3213,16 +3213,16 @@
         <v>20</v>
       </c>
       <c r="AP15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR15" t="n">
         <v>15</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3231,16 +3231,16 @@
         <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ15" t="n">
         <v>7</v>
@@ -3249,10 +3249,10 @@
         <v>16</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -3359,13 +3359,13 @@
         <v>-4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
@@ -3374,10 +3374,10 @@
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK16" t="n">
         <v>27</v>
@@ -3389,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3398,7 +3398,7 @@
         <v>30</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
@@ -3407,13 +3407,13 @@
         <v>13</v>
       </c>
       <c r="AT16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3425,7 +3425,7 @@
         <v>26</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -3541,61 +3541,61 @@
         <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>14</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3604,13 +3604,13 @@
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ17" t="n">
         <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -3723,16 +3723,16 @@
         <v>10.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
         <v>5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>6</v>
       </c>
       <c r="AF18" t="n">
         <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
@@ -3753,13 +3753,13 @@
         <v>5</v>
       </c>
       <c r="AN18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>18</v>
@@ -3777,7 +3777,7 @@
         <v>7</v>
       </c>
       <c r="AV18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
@@ -3786,7 +3786,7 @@
         <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
         <v>10</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -3827,157 +3827,157 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="H19" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="J19" t="n">
-        <v>91.5</v>
+        <v>92.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L19" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="M19" t="n">
-        <v>34.1</v>
+        <v>35</v>
       </c>
       <c r="N19" t="n">
         <v>0.337</v>
       </c>
       <c r="O19" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="P19" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.743</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>33.2</v>
+        <v>32.1</v>
       </c>
       <c r="T19" t="n">
-        <v>44.9</v>
+        <v>44.1</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="V19" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W19" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y19" t="n">
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>108.8</v>
+        <v>110.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="AD19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH19" t="n">
         <v>5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="n">
         <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AT19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW19" t="n">
         <v>13</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AX19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY19" t="n">
         <v>20</v>
       </c>
-      <c r="AV19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY19" t="n">
+      <c r="AZ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA19" t="n">
         <v>17</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>22</v>
-      </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>30</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -4087,25 +4087,25 @@
         <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG20" t="n">
         <v>20</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>15</v>
@@ -4126,10 +4126,10 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
@@ -4138,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>27</v>
@@ -4150,13 +4150,13 @@
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -4191,160 +4191,160 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>37.9</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>84.5</v>
+        <v>85.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L21" t="n">
-        <v>9.5</v>
+        <v>9.9</v>
       </c>
       <c r="M21" t="n">
-        <v>26.3</v>
+        <v>26.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.361</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="P21" t="n">
-        <v>21.6</v>
+        <v>21.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.741</v>
+        <v>0.738</v>
       </c>
       <c r="R21" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="S21" t="n">
-        <v>36.1</v>
+        <v>37</v>
       </c>
       <c r="T21" t="n">
-        <v>46.1</v>
+        <v>47.2</v>
       </c>
       <c r="U21" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="V21" t="n">
         <v>15.7</v>
       </c>
       <c r="W21" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.3</v>
+        <v>102.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.8</v>
+        <v>-1.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="n">
         <v>14</v>
       </c>
       <c r="AS21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA21" t="n">
         <v>17</v>
       </c>
-      <c r="AY21" t="n">
+      <c r="BB21" t="n">
         <v>28</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>29</v>
-      </c>
       <c r="BC21" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -4373,160 +4373,160 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>38.6</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>85.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="K22" t="n">
-        <v>0.451</v>
+        <v>0.438</v>
       </c>
       <c r="L22" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="M22" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.335</v>
+        <v>0.329</v>
       </c>
       <c r="O22" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="P22" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.715</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="S22" t="n">
-        <v>37.7</v>
+        <v>38.5</v>
       </c>
       <c r="T22" t="n">
-        <v>44.7</v>
+        <v>46</v>
       </c>
       <c r="U22" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4</v>
+        <v>16</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="X22" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.9</v>
+        <v>101.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>-4</v>
+        <v>-6.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
         <v>6</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
       </c>
       <c r="AI22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK22" t="n">
         <v>28</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>18</v>
-      </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
         <v>27</v>
       </c>
       <c r="AP22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW22" t="n">
         <v>26</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>23</v>
-      </c>
       <c r="AX22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA22" t="n">
         <v>24</v>
       </c>
       <c r="BB22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -4633,16 +4633,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
         <v>5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>6</v>
       </c>
       <c r="AF23" t="n">
         <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
         <v>15</v>
@@ -4657,7 +4657,7 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
@@ -4666,22 +4666,22 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS23" t="n">
         <v>14</v>
       </c>
-      <c r="AP23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>15</v>
-      </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>30</v>
@@ -4702,13 +4702,13 @@
         <v>2</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
         <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -4815,28 +4815,28 @@
         <v>4.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
         <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>23</v>
@@ -4848,28 +4848,28 @@
         <v>11</v>
       </c>
       <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
         <v>14</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>17</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS24" t="n">
         <v>4</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW24" t="n">
         <v>8</v>
@@ -4878,16 +4878,16 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>15</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>14</v>
       </c>
       <c r="BA24" t="n">
         <v>11</v>
       </c>
       <c r="BB24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC24" t="n">
         <v>6</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -4997,28 +4997,28 @@
         <v>6.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
         <v>1</v>
       </c>
       <c r="AG25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>5</v>
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -5039,10 +5039,10 @@
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
@@ -5054,25 +5054,25 @@
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -5179,58 +5179,58 @@
         <v>2</v>
       </c>
       <c r="AD26" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ26" t="n">
         <v>9</v>
       </c>
       <c r="AR26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT26" t="n">
         <v>14</v>
       </c>
       <c r="AU26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
@@ -5245,10 +5245,10 @@
         <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB26" t="n">
         <v>4</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -5361,25 +5361,25 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
@@ -5391,10 +5391,10 @@
         <v>27</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP27" t="n">
         <v>1</v>
@@ -5415,13 +5415,13 @@
         <v>17</v>
       </c>
       <c r="AV27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY27" t="n">
         <v>25</v>
@@ -5430,10 +5430,10 @@
         <v>17</v>
       </c>
       <c r="BA27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -5465,46 +5465,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>42</v>
+        <v>42.7</v>
       </c>
       <c r="J28" t="n">
         <v>94.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.445</v>
+        <v>0.452</v>
       </c>
       <c r="L28" t="n">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="M28" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="N28" t="n">
-        <v>0.392</v>
+        <v>0.405</v>
       </c>
       <c r="O28" t="n">
-        <v>15</v>
+        <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>19.4</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.773</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
         <v>9.300000000000001</v>
@@ -5516,109 +5516,109 @@
         <v>45.4</v>
       </c>
       <c r="U28" t="n">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="V28" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="W28" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>111.1</v>
+        <v>113.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>-2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH28" t="n">
         <v>5</v>
       </c>
-      <c r="AE28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>10</v>
-      </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS28" t="n">
         <v>12</v>
       </c>
-      <c r="AR28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>11</v>
-      </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
       </c>
       <c r="AW28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -5647,160 +5647,160 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>39.2</v>
+        <v>39.3</v>
       </c>
       <c r="J29" t="n">
-        <v>89.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.439</v>
+        <v>0.443</v>
       </c>
       <c r="L29" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="M29" t="n">
-        <v>42.3</v>
+        <v>42.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.36</v>
+        <v>0.362</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="P29" t="n">
         <v>22.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.773</v>
+        <v>0.79</v>
       </c>
       <c r="R29" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="S29" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="T29" t="n">
-        <v>43.6</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
       <c r="W29" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>111.1</v>
+        <v>111.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AK29" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>16</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
         <v>7</v>
       </c>
       <c r="AX29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -5829,139 +5829,139 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="J30" t="n">
-        <v>89.2</v>
+        <v>90</v>
       </c>
       <c r="K30" t="n">
-        <v>0.453</v>
+        <v>0.456</v>
       </c>
       <c r="L30" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="M30" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="O30" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="P30" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.697</v>
+        <v>0.699</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="S30" t="n">
-        <v>38.8</v>
+        <v>37.9</v>
       </c>
       <c r="T30" t="n">
-        <v>50.4</v>
+        <v>49</v>
       </c>
       <c r="U30" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="X30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.2</v>
+        <v>18.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>109.5</v>
+        <v>111</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
         <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO30" t="n">
         <v>28</v>
       </c>
       <c r="AP30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>30</v>
@@ -5970,19 +5970,19 @@
         <v>9</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
@@ -6089,16 +6089,16 @@
         <v>-3</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH31" t="n">
         <v>15</v>
@@ -6107,16 +6107,16 @@
         <v>3</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>8</v>
@@ -6131,22 +6131,22 @@
         <v>19</v>
       </c>
       <c r="AR31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
         <v>29</v>
       </c>
       <c r="AU31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX31" t="n">
         <v>29</v>
@@ -6158,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB31" t="n">
         <v>2</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-10-2020-21</t>
+          <t>2021-01-10</t>
         </is>
       </c>
     </row>
